--- a/Data/Literature reviews and calculations for constants.xlsx
+++ b/Data/Literature reviews and calculations for constants.xlsx
@@ -28365,8 +28365,8 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A183296C2D9DE541958AD9D9A6E59D08" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0b231b0256d86f46edf0b74cb15f0732">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="12e73323-2992-4b61-9f89-f2ff99442528" xmlns:ns3="60bd3312-76b2-43ff-ab1e-17ba520e0d12" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3e0f08dad9a9dd49ec8fe5b22f031ccf" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A183296C2D9DE541958AD9D9A6E59D08" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ef9e81cc8ea135f7dd7143deedbca767">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="12e73323-2992-4b61-9f89-f2ff99442528" xmlns:ns3="60bd3312-76b2-43ff-ab1e-17ba520e0d12" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f6f209b185d7905ebfc3951605bf0c4b" ns2:_="" ns3:_="">
     <xsd:import namespace="12e73323-2992-4b61-9f89-f2ff99442528"/>
     <xsd:import namespace="60bd3312-76b2-43ff-ab1e-17ba520e0d12"/>
     <xsd:element name="properties">
@@ -28386,6 +28386,7 @@
                 <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -28443,6 +28444,11 @@
     <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -28594,22 +28600,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB56B8F0-F7A3-4845-9FFD-5FC019E45770}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="12e73323-2992-4b61-9f89-f2ff99442528"/>
-    <ds:schemaRef ds:uri="60bd3312-76b2-43ff-ab1e-17ba520e0d12"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A3A4146-83B4-440D-940A-F8CED8F70AC9}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/Data/Literature reviews and calculations for constants.xlsx
+++ b/Data/Literature reviews and calculations for constants.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="10" documentId="8_{3A753BFA-B247-44ED-BBE3-FF4982D27918}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E866199-9C5C-4635-B8DF-FB9B13EE75DF}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-2505" windowWidth="38640" windowHeight="21240" tabRatio="971" firstSheet="4" activeTab="8" xr2:uid="{B282461D-F441-4DB4-8C9A-6194C1435F4A}"/>
+    <workbookView minimized="1" xWindow="45900" yWindow="-960" windowWidth="22170" windowHeight="20445" tabRatio="971" firstSheet="4" activeTab="8" xr2:uid="{B282461D-F441-4DB4-8C9A-6194C1435F4A}"/>
   </bookViews>
   <sheets>
     <sheet name="Directory" sheetId="27" r:id="rId1"/>
@@ -26771,10 +26771,10 @@
   <dimension ref="A1:Y39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomRight" activeCell="W33" sqref="W33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
